--- a/テスト用ファイル.xlsx
+++ b/テスト用ファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\github\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DEE17AD-5FBD-4705-8912-A395CD3BBB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69993DE5-34A8-4A78-8826-3801D0B6EC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2366FF5F-9477-4237-9D2F-8AAF4AF850B0}"/>
   </bookViews>
@@ -33,6 +33,61 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>test_mebius</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は1991年(平成3年)8月8日生まれの日本人(三重県民)で、愛知県の企業に2014年から勤めています</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ニホンジン</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ミエケン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>アイチケン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,12 +469,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95252AC-04B9-4686-B657-500233284B31}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/テスト用ファイル.xlsx
+++ b/テスト用ファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\github\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69993DE5-34A8-4A78-8826-3801D0B6EC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2490BCB7-3C71-4A8A-8C67-FF20E891788C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2366FF5F-9477-4237-9D2F-8AAF4AF850B0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test_mebius</t>
     <phoneticPr fontId="1"/>
@@ -85,6 +85,10 @@
     <rPh sb="46" eb="47">
       <t>ツト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -469,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95252AC-04B9-4686-B657-500233284B31}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -487,6 +491,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト用ファイル.xlsx
+++ b/テスト用ファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\github\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2490BCB7-3C71-4A8A-8C67-FF20E891788C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E3986E-1B27-4429-991F-7547D8EBB6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2366FF5F-9477-4237-9D2F-8AAF4AF850B0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>test_mebius</t>
     <phoneticPr fontId="1"/>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>test2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -473,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95252AC-04B9-4686-B657-500233284B31}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -496,6 +500,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト用ファイル.xlsx
+++ b/テスト用ファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\github\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E3986E-1B27-4429-991F-7547D8EBB6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8295C24-EFE2-4648-B0F8-B6619C579446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2366FF5F-9477-4237-9D2F-8AAF4AF850B0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>test_mebius</t>
     <phoneticPr fontId="1"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>test3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -477,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95252AC-04B9-4686-B657-500233284B31}">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -505,6 +509,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト用ファイル.xlsx
+++ b/テスト用ファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\github\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8295C24-EFE2-4648-B0F8-B6619C579446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8764C5A-394D-4E37-AE19-43E39F0F54A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2366FF5F-9477-4237-9D2F-8AAF4AF850B0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>test_mebius</t>
     <phoneticPr fontId="1"/>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>test4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -481,37 +485,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95252AC-04B9-4686-B657-500233284B31}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/テスト用ファイル.xlsx
+++ b/テスト用ファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\github\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8764C5A-394D-4E37-AE19-43E39F0F54A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5912F6FA-4AB8-4CDD-97F3-62E5A0DD521E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2366FF5F-9477-4237-9D2F-8AAF4AF850B0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>test_mebius</t>
     <phoneticPr fontId="1"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>test5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -485,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95252AC-04B9-4686-B657-500233284B31}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -521,6 +525,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト用ファイル.xlsx
+++ b/テスト用ファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\github\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5912F6FA-4AB8-4CDD-97F3-62E5A0DD521E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B33ED5-1479-4B7C-9D29-ED2BA9BDE059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2366FF5F-9477-4237-9D2F-8AAF4AF850B0}"/>
   </bookViews>
@@ -36,75 +36,158 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>test_mebius</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私は1991年(平成3年)8月8日生まれの日本人(三重県民)で、愛知県の企業に2014年から勤めています</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヘイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ニホンジン</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>ミエケン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ミン</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>アイチケン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>キギョウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ツト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>ExcelをGitで管理する</t>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やりたいこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付管理をファイル名でやるのをやめたい</t>
+    <rPh sb="0" eb="4">
+      <t>ヒヅケカンリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分確認を簡単にしたい</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VBAのバージョン管理したい</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マージも簡単にできたらいいな(できるかまだわかんない)</t>
+    <rPh sb="4" eb="6">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHub登録</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubをBash(コマンドプロンプトやターミナルみたいなCUI)から、簡単な操作ならできるようになる</t>
+    <rPh sb="38" eb="40">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitの単語とコマンドを、最低限リポジトリ・Add・Commit・Push・Pull・Branch・Checkout・Merge・Deleteが理解できるようになる</t>
+    <rPh sb="4" eb="6">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイテイゲン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tortoiseインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WinMergeインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarkDawnItインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tips(あとでちゃんとした資料にまとめるけど、とりあえずメモ書き)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows11の右クリックメニューは、デフォルトだと、Shift右クリックの詳細メニューでしか、Gitのリポジトリ追加、とかのコマンドメニューがでない</t>
+    <rPh sb="10" eb="11">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限のコマンドプロンプトで、「reg.exe add "HKCU\Software\Classes\CLSID\{86ca1aa0-34aa-4e8b-a509-50c905bae2a2}\InprocServer32" /f /ve」を入力して「PC再起動」すると、普通の右クリックで詳細右クリックメニューが出るようになる</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="129" eb="132">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://licensecounter.jp/win_migration/blog/aab41de138518a80d873fe641870fd0f3446a0ce/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -112,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +206,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -146,17 +238,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,49 +588,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95252AC-04B9-4686-B657-500233284B31}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F19" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{FAD54B86-355E-47FB-AECE-765BB76E96FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/テスト用ファイル.xlsx
+++ b/テスト用ファイル.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\github\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B33ED5-1479-4B7C-9D29-ED2BA9BDE059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C92327A-EA9E-44A6-8FA3-71265508966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2366FF5F-9477-4237-9D2F-8AAF4AF850B0}"/>
+    <workbookView xWindow="51570" yWindow="5340" windowWidth="28830" windowHeight="15510" activeTab="1" xr2:uid="{2366FF5F-9477-4237-9D2F-8AAF4AF850B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Git" sheetId="1" r:id="rId1"/>
+    <sheet name="Docker" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>ExcelをGitで管理する</t>
     <rPh sb="10" eb="12">
@@ -188,6 +189,146 @@
   </si>
   <si>
     <t>https://licensecounter.jp/win_migration/blog/aab41de138518a80d873fe641870fd0f3446a0ce/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Dockerで実験環境を用意する</t>
+    <rPh sb="7" eb="9">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI学習をオンプレで実施したい</t>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MMVC学習をローカル環境で構築したい</t>
+    <rPh sb="4" eb="6">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WSLのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Docekrのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tips</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WSLは、以下のサイトを参考にインストールする</t>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめ手順</t>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VC Trainer &amp; Player: ボイチェンができるまで。「番外編：WSL2とCPU版Dockerのインストール」</t>
+  </si>
+  <si>
+    <t>1) Youtube視聴(MMVC目的でないDockerインストールであれば、10:50までで充分)</t>
+    <rPh sb="17" eb="19">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジュウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2) マイクロソフトのWSLのページで、必要なコマンドを確認</t>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3) マイクロソフトのDockerのページで、必要なコマンドを確認</t>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4) 実際に環境を構築する</t>
+    <rPh sb="3" eb="5">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考サイト</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WSL</t>
+  </si>
+  <si>
+    <t>GPU用のDockerインストール(現在検証中)</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -195,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +360,21 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,11 +402,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,99 +752,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95252AC-04B9-4686-B657-500233284B31}">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+    <row r="3" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D4" t="s">
+    <row r="4" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D5" t="s">
+    <row r="5" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D6" t="s">
+    <row r="6" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D7" t="s">
+    <row r="7" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
+    <row r="8" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D9" t="s">
+    <row r="9" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D10" t="s">
+    <row r="10" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
+    <row r="11" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E12" t="s">
+    <row r="12" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
+    <row r="13" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D14" t="s">
+    <row r="14" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D15" t="s">
+    <row r="15" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
+    <row r="16" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D17" t="s">
+    <row r="17" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="E18" t="s">
+    <row r="18" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="F19" s="1" t="s">
+    <row r="19" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -693,4 +856,122 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F5BFC8-2123-4182-AE26-7BCA8C848C44}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{1878687A-CB41-4110-B91C-14BB7E291462}"/>
+    <hyperlink ref="F19" r:id="rId2" xr:uid="{8A9A77FB-7004-4AC9-8C73-14179E6E0D51}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/テスト用ファイル.xlsx
+++ b/テスト用ファイル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\github\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C92327A-EA9E-44A6-8FA3-71265508966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56EF386-304A-45B4-96F0-267D926946FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51570" yWindow="5340" windowWidth="28830" windowHeight="15510" activeTab="1" xr2:uid="{2366FF5F-9477-4237-9D2F-8AAF4AF850B0}"/>
+    <workbookView xWindow="51570" yWindow="5340" windowWidth="28830" windowHeight="15510" xr2:uid="{2366FF5F-9477-4237-9D2F-8AAF4AF850B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Git" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>ExcelをGitで管理する</t>
     <rPh sb="10" eb="12">
@@ -328,6 +328,180 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dockerインストール後、ファイルのパーミッションがおかしくて動かなかったので調べたメモ</t>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MMVCのGitから取ってきて、シェルスクリプトから起動しようとしたら、「var/run/docker.sock: connect: permission denied」のエラーが出て動かなかった</t>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/berukokoko/items/57cdcb668cf4e2bed292</t>
+  </si>
+  <si>
+    <t>で、調べたら、以下のサイトと同じ状況だったので、同じように権限付与してやって解消。無事起動できた</t>
+    <rPh sb="2" eb="3">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カイショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ブジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なお、上記サイトの文中のコマンドに出てくる、userの文字列は、適宜自分のwslのuser名に置き換えて実行すること(私の環境の場合、mebius0388)</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンチュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テキギ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPU環境構築のメモ</t>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.nvidia.com/datacenter/cloud-native/container-toolkit/latest/install-guide.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これが良さそうだけど、まだ試してない</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubのブランチは、文章の章構成に使われたりもするので、そのあたりが慣れないとさまよう</t>
+    <rPh sb="13" eb="15">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昨日は、ファイルをリポジトリからダウンロードしてください、の一文だけ書かれた説明書のおかげで4時間も彷徨った</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチブン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>セツメイショ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サマヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -750,9 +924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95252AC-04B9-4686-B657-500233284B31}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -847,6 +1023,16 @@
     <row r="19" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F19" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -860,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F5BFC8-2123-4182-AE26-7BCA8C848C44}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -946,24 +1132,64 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="5:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="5:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="5:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="5:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F20" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -971,6 +1197,7 @@
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" xr:uid="{1878687A-CB41-4110-B91C-14BB7E291462}"/>
     <hyperlink ref="F19" r:id="rId2" xr:uid="{8A9A77FB-7004-4AC9-8C73-14179E6E0D51}"/>
+    <hyperlink ref="E27" r:id="rId3" xr:uid="{6130DFE9-B731-4E1B-BC64-5ADA587965EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
